--- a/StructureDefinition-profile-OperationOutcome.xlsx
+++ b/StructureDefinition-profile-OperationOutcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7555694-06:00</t>
+    <t>2026-02-09T22:05:43.248843-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -575,6 +575,12 @@
     <t>open</t>
   </si>
   <si>
+    <t>OperationOutcome.issue.severity.extension:severity</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.severity|0.0.1-snapshot-3}
 </t>
   </si>
@@ -582,6 +588,9 @@
     <t>Cross-version extension for OperationOutcome.issue.severity from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `OperationOutcome.issue.severity` is mapped to FHIR R4 element `OperationOutcome.issue.severity`.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -626,6 +635,12 @@
     <t>OperationOutcome.issue.code.extension</t>
   </si>
   <si>
+    <t>OperationOutcome.issue.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.code|0.0.1-snapshot-3}
 </t>
   </si>
@@ -633,7 +648,7 @@
     <t>Cross-version extension for OperationOutcome.issue.code from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Code values should align with the severity.  For example, a code of ```forbidden``` generally wouldn't make sense with a severity of ```information``` or ```warning```.  Similarly, a code of ```informational``` would generally not make sense with a severity of ```fatal``` or ```error```.  However, there are no strict rules about what severities must be used with which codes.  For example, ```code-invalid``` might be a ```warning``` or ```error```, depending on the context</t>
+    <t>Element `OperationOutcome.issue.code` is mapped to FHIR R4 element `OperationOutcome.issue.code`.</t>
   </si>
   <si>
     <t>OperationOutcome.issue.code.value</t>
@@ -1032,7 +1047,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2911,12 +2926,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
@@ -2937,15 +2954,17 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3003,7 +3022,7 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -3017,10 +3036,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3046,10 +3065,10 @@
         <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3100,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3123,10 +3142,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3152,14 +3171,14 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3187,10 +3206,10 @@
         <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3208,7 +3227,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
@@ -3223,18 +3242,18 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3337,10 +3356,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3441,12 +3460,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3467,16 +3488,16 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3535,7 +3556,7 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>136</v>
@@ -3549,10 +3570,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3578,10 +3599,10 @@
         <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3632,7 +3653,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3655,10 +3676,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3681,16 +3702,16 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3716,31 +3737,31 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3755,18 +3776,18 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3792,13 +3813,13 @@
         <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3848,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3863,18 +3884,18 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3900,16 +3921,16 @@
         <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -3958,7 +3979,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3973,18 +3994,18 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4010,16 +4031,16 @@
         <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4068,7 +4089,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4083,10 +4104,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-OperationOutcome.xlsx
+++ b/StructureDefinition-profile-OperationOutcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.248843-06:00</t>
+    <t>2026-02-17T14:42:26.8691265-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -497,10 +497,40 @@
     <t>OperationOutcome.issue.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.extension:issue</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationOutcome.issue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `OperationOutcome.issue` has is mapped to FHIR R4 element `OperationOutcome.issue`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>OperationOutcome.issue.modifierExtension</t>
@@ -550,60 +580,6 @@
     <t>ERR-4</t>
   </si>
   <si>
-    <t>OperationOutcome.issue.severity.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.severity.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.severity.extension:severity</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.severity|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationOutcome.issue.severity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `OperationOutcome.issue.severity` is mapped to FHIR R4 element `OperationOutcome.issue.severity`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.severity.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>OperationOutcome.issue.code</t>
   </si>
   <si>
@@ -627,31 +603,6 @@
   </si>
   <si>
     <t>ERR-3</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.code.id</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.code.extension</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.code.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.code|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationOutcome.issue.code from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `OperationOutcome.issue.code` is mapped to FHIR R4 element `OperationOutcome.issue.code`.</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.code.value</t>
   </si>
   <si>
     <t>OperationOutcome.issue.details</t>
@@ -1038,7 +989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1047,8 +998,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1057,7 +1008,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2395,11 +2346,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2417,14 +2368,12 @@
         <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2461,19 +2410,17 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2488,7 +2435,7 @@
         <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2496,18 +2443,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -2516,26 +2465,24 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2583,7 +2530,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2592,13 +2539,13 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2606,45 +2553,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2669,13 +2616,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2693,33 +2640,33 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2727,7 +2674,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -2739,19 +2686,23 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -2775,13 +2726,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2799,10 +2750,10 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>85</v>
@@ -2811,21 +2762,21 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2836,7 +2787,7 @@
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2845,19 +2796,21 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -2881,65 +2834,65 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -2951,19 +2904,19 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2989,13 +2942,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3013,33 +2966,33 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3059,18 +3012,20 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3119,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3131,21 +3086,21 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3153,10 +3108,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3168,17 +3123,19 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3203,13 +3160,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3227,13 +3184,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3242,18 +3199,18 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3264,7 +3221,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3273,19 +3230,23 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3333,781 +3294,25 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-OperationOutcome.xlsx
+++ b/StructureDefinition-profile-OperationOutcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8691265-06:00</t>
+    <t>2026-02-20T11:59:20.9057891-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OperationOutcome|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OperationOutcome</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -519,7 +519,7 @@
     <t>issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue}
 </t>
   </si>
   <si>
@@ -1008,7 +1008,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-OperationOutcome.xlsx
+++ b/StructureDefinition-profile-OperationOutcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9057891-06:00</t>
+    <t>2026-02-21T13:36:54.3095649-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OperationOutcome</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OperationOutcome|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -497,6 +497,71 @@
     <t>OperationOutcome.issue.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.severity</t>
+  </si>
+  <si>
+    <t>fatal | error | warning | information</t>
+  </si>
+  <si>
+    <t>Indicates whether the issue indicates a variation from successful processing.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not confuse hints and warnings with errors.</t>
+  </si>
+  <si>
+    <t>Indicates how relevant the issue is to the overall success of the action.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How the issue affects the success of the action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/issue-severity|4.0.1</t>
+  </si>
+  <si>
+    <t>./typeCode[parent::AcknowledgmentDetail] or unique(./inboundRelationship[parent::Observation and typeCode='SUBJ' and isNormalActRelationship()]/source[classCode="OBS" and moodCode="EVN" and implies(code, ActCode#SEV and isNormalAct())/value[xsi:type="CD"]</t>
+  </si>
+  <si>
+    <t>ERR-4</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.severity.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.severity.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -510,74 +575,33 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.extension:issue</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue}
+    <t>OperationOutcome.issue.severity.extension:severity</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.severity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for OperationOutcome.issue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `OperationOutcome.issue` has is mapped to FHIR R4 element `OperationOutcome.issue`, but has no comparisons.</t>
+    <t>Cross-version extension for OperationOutcome.issue.severity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `OperationOutcome.issue.severity` is mapped to FHIR R4 element `OperationOutcome.issue.severity` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>OperationOutcome.issue.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.severity</t>
-  </si>
-  <si>
-    <t>fatal | error | warning | information</t>
-  </si>
-  <si>
-    <t>Indicates whether the issue indicates a variation from successful processing.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications should not confuse hints and warnings with errors.</t>
-  </si>
-  <si>
-    <t>Indicates how relevant the issue is to the overall success of the action.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How the issue affects the success of the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/issue-severity|4.0.1</t>
-  </si>
-  <si>
-    <t>./typeCode[parent::AcknowledgmentDetail] or unique(./inboundRelationship[parent::Observation and typeCode='SUBJ' and isNormalActRelationship()]/source[classCode="OBS" and moodCode="EVN" and implies(code, ActCode#SEV and isNormalAct())/value[xsi:type="CD"]</t>
-  </si>
-  <si>
-    <t>ERR-4</t>
+    <t>OperationOutcome.issue.severity.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>OperationOutcome.issue.code</t>
@@ -603,6 +627,31 @@
   </si>
   <si>
     <t>ERR-3</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.code.id</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.code.extension</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationOutcome.issue.code|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationOutcome.issue.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `OperationOutcome.issue.code` is mapped to FHIR R4 element `OperationOutcome.issue.code` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.code.value</t>
   </si>
   <si>
     <t>OperationOutcome.issue.details</t>
@@ -989,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -998,8 +1047,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1008,7 +1057,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2346,11 +2395,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2368,12 +2417,14 @@
         <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2410,17 +2461,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2435,7 +2488,7 @@
         <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2443,20 +2496,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -2465,24 +2516,26 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2530,7 +2583,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2539,13 +2592,13 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2553,45 +2606,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2616,13 +2669,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2640,33 +2693,33 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2674,7 +2727,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -2686,23 +2739,19 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -2726,13 +2775,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2750,10 +2799,10 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>85</v>
@@ -2762,21 +2811,21 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2787,7 +2836,7 @@
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2796,21 +2845,19 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -2834,65 +2881,65 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -2904,19 +2951,19 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2942,13 +2989,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -2966,33 +3013,33 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3012,20 +3059,18 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3074,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3086,21 +3131,21 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3108,10 +3153,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3123,19 +3168,17 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3160,13 +3203,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3184,13 +3227,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3199,18 +3242,18 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3221,7 +3264,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3230,23 +3273,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3294,25 +3333,781 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>210</v>
+      <c r="AK27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
